--- a/test/hunterX.xlsx
+++ b/test/hunterX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>战士</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>群体治疗(魔攻x6.5，AOE5.0，耗魔30，cd10s，攻击力即回复量，10级时自动学会)</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,14 +519,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:C56"/>
+  <dimension ref="C2:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>0</v>
